--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/0.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/0.xlsx
@@ -479,13 +479,13 @@
         <v>0.09273314998468421</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.030770271119402</v>
+        <v>-2.018961596896882</v>
       </c>
       <c r="F2" t="n">
-        <v>0.310952466059648</v>
+        <v>0.3030649718679421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04207015555662014</v>
+        <v>0.04324303301800666</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1188680784657749</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.092084986832207</v>
+        <v>-2.089075638213132</v>
       </c>
       <c r="F3" t="n">
-        <v>0.144173316526952</v>
+        <v>0.1367322842706257</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0004943787115965771</v>
+        <v>-0.001785580784272216</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1501866234227946</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.293561913744423</v>
+        <v>-2.29478541462198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09577611082699364</v>
+        <v>0.09025205925768648</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01648527901457716</v>
+        <v>-0.01978007051037017</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1795146317480684</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.344712911299899</v>
+        <v>-2.337817148128586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.130357393357255</v>
+        <v>0.1271272534531973</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02703385711893482</v>
+        <v>-0.02858671516193538</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2041065523978106</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.356197107722388</v>
+        <v>-2.342637351236926</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1045912943680333</v>
+        <v>0.09703986646921561</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02458441568111462</v>
+        <v>-0.02465211687623366</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2230581296236566</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.08399133945176</v>
+        <v>-2.061604810932399</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1703559913383927</v>
+        <v>0.1683798483457289</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0681967936719845</v>
+        <v>-0.06746854838394732</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2392726243223617</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.846906633510316</v>
+        <v>-1.839656506425811</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1949376243733696</v>
+        <v>0.184214608955462</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01400778122562655</v>
+        <v>-0.01314047402329081</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2576407965845239</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.363933016658568</v>
+        <v>-1.367738921681476</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2624094893179468</v>
+        <v>0.2493132725468125</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04742289542194565</v>
+        <v>-0.04725577715651668</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2876698322066519</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7513683337768075</v>
+        <v>-0.759220452569262</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2846380483820298</v>
+        <v>0.2736991210445534</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002704045317270239</v>
+        <v>0.005214478822765246</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3401698074006736</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2840745576828991</v>
+        <v>-0.314892629637625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1480103275043741</v>
+        <v>0.1392518665862719</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01803745113071642</v>
+        <v>0.02358528960641675</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.421825395953647</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4173592273251142</v>
+        <v>0.376742169777754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01356185320473917</v>
+        <v>0.008388506024562139</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1376837605263527</v>
+        <v>0.1447130963258741</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.534105589813347</v>
       </c>
       <c r="E13" t="n">
-        <v>1.004536571957914</v>
+        <v>0.9439574205812664</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.09182817029258801</v>
+        <v>-0.0852221194427298</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2087590368291574</v>
+        <v>0.2133980934965031</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.676456907501807</v>
       </c>
       <c r="E14" t="n">
-        <v>1.550131964532738</v>
+        <v>1.473738789849367</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4097810389227041</v>
+        <v>-0.400095498575945</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3759474431359513</v>
+        <v>0.3790482798565384</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8436684642794643</v>
       </c>
       <c r="E15" t="n">
-        <v>2.122683411337119</v>
+        <v>2.041534075216467</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7747868480812259</v>
+        <v>-0.7700910687909426</v>
       </c>
       <c r="G15" t="n">
-        <v>0.430202327015398</v>
+        <v>0.426527554937991</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.026613837804275</v>
       </c>
       <c r="E16" t="n">
-        <v>2.808252549622238</v>
+        <v>2.728239495722368</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.044477913401622</v>
+        <v>-1.0224103733962</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5431352395220684</v>
+        <v>0.5371482581591095</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.217612217039757</v>
       </c>
       <c r="E17" t="n">
-        <v>3.280963031246346</v>
+        <v>3.197502705681496</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.38977779541509</v>
+        <v>-1.363596340445003</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6270383674982383</v>
+        <v>0.6126655867506703</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.407231986151721</v>
       </c>
       <c r="E18" t="n">
-        <v>3.823586280363377</v>
+        <v>3.737761902255451</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.648315241319795</v>
+        <v>-1.609806679551952</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7553705572514436</v>
+        <v>0.7369357047967336</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.587339035767434</v>
       </c>
       <c r="E19" t="n">
-        <v>4.138183365430026</v>
+        <v>4.039273749123146</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.934563213331193</v>
+        <v>-1.89367108155862</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9243344426482512</v>
+        <v>0.9034806447895584</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.755217330745642</v>
       </c>
       <c r="E20" t="n">
-        <v>4.432712840390309</v>
+        <v>4.334896201936163</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.170781221990979</v>
+        <v>-2.119945553425381</v>
       </c>
       <c r="G20" t="n">
-        <v>1.198006460225782</v>
+        <v>1.176722668289981</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.908041152893913</v>
       </c>
       <c r="E21" t="n">
-        <v>4.757176002324034</v>
+        <v>4.66329945144168</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.50545750565685</v>
+        <v>-2.448863575982074</v>
       </c>
       <c r="G21" t="n">
-        <v>1.330408650654927</v>
+        <v>1.307877570935177</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.041793588127604</v>
       </c>
       <c r="E22" t="n">
-        <v>5.067338964070724</v>
+        <v>4.969480851010559</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.723204676541997</v>
+        <v>-2.670706974132262</v>
       </c>
       <c r="G22" t="n">
-        <v>1.384118265449361</v>
+        <v>1.354003432034925</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.154120133768623</v>
       </c>
       <c r="E23" t="n">
-        <v>5.342093590849482</v>
+        <v>5.2500565607282</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.903295344844719</v>
+        <v>-2.84889468992353</v>
       </c>
       <c r="G23" t="n">
-        <v>1.602863266561668</v>
+        <v>1.581281833335615</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.244778289029788</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471793222759956</v>
+        <v>5.381110216541055</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.065693739116672</v>
+        <v>-3.002516630617417</v>
       </c>
       <c r="G24" t="n">
-        <v>1.681647330297891</v>
+        <v>1.666523737197246</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.312113419297419</v>
       </c>
       <c r="E25" t="n">
-        <v>5.666434768647857</v>
+        <v>5.587791596587962</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.226642656900334</v>
+        <v>-3.169133541250098</v>
       </c>
       <c r="G25" t="n">
-        <v>1.737731976207582</v>
+        <v>1.723345777205126</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.354215817337094</v>
       </c>
       <c r="E26" t="n">
-        <v>5.72430648214042</v>
+        <v>5.64799198722435</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.365297449147162</v>
+        <v>-3.311027317250796</v>
       </c>
       <c r="G26" t="n">
-        <v>1.735549680026178</v>
+        <v>1.728011060461572</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.370764851932302</v>
       </c>
       <c r="E27" t="n">
-        <v>5.851537155151418</v>
+        <v>5.781992779747251</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.325006699161862</v>
+        <v>-3.267902875801325</v>
       </c>
       <c r="G27" t="n">
-        <v>1.744610661599947</v>
+        <v>1.7357668117871</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.360329253222349</v>
       </c>
       <c r="E28" t="n">
-        <v>5.844680426903417</v>
+        <v>5.779446970842505</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.307111321545735</v>
+        <v>-3.253582853192296</v>
       </c>
       <c r="G28" t="n">
-        <v>1.73564116812769</v>
+        <v>1.736214493563833</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.320916816284891</v>
       </c>
       <c r="E29" t="n">
-        <v>5.842866522810768</v>
+        <v>5.782284321830737</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.436903356438737</v>
+        <v>-3.392692646263977</v>
       </c>
       <c r="G29" t="n">
-        <v>1.751184996574614</v>
+        <v>1.752953766537183</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.255353075676834</v>
       </c>
       <c r="E30" t="n">
-        <v>5.788348153198966</v>
+        <v>5.734952037632381</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.368804493038463</v>
+        <v>-3.321815899141454</v>
       </c>
       <c r="G30" t="n">
-        <v>1.719620381711549</v>
+        <v>1.719642948776588</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.167126997936651</v>
       </c>
       <c r="E31" t="n">
-        <v>5.706876169040314</v>
+        <v>5.661428539733109</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.322272729728339</v>
+        <v>-3.276389617057935</v>
       </c>
       <c r="G31" t="n">
-        <v>1.614865285638716</v>
+        <v>1.613932107003292</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.058889595368668</v>
       </c>
       <c r="E32" t="n">
-        <v>5.494906776726001</v>
+        <v>5.450654591945223</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.293679343442051</v>
+        <v>-3.255505323165405</v>
       </c>
       <c r="G32" t="n">
-        <v>1.52022206446569</v>
+        <v>1.522223824126777</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.936208283282262</v>
       </c>
       <c r="E33" t="n">
-        <v>5.300092013365903</v>
+        <v>5.257836708880799</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.32730823483557</v>
+        <v>-3.292499146932544</v>
       </c>
       <c r="G33" t="n">
-        <v>1.423413014969531</v>
+        <v>1.425306818670834</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.804220198234517</v>
       </c>
       <c r="E34" t="n">
-        <v>5.068336794297884</v>
+        <v>5.03264179661188</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.172276157537042</v>
+        <v>-3.125821854152865</v>
       </c>
       <c r="G34" t="n">
-        <v>1.323145715236211</v>
+        <v>1.32179352109586</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.666321889279284</v>
       </c>
       <c r="E35" t="n">
-        <v>4.822797367935357</v>
+        <v>4.789737227572906</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.119995891848567</v>
+        <v>-3.077924478447501</v>
       </c>
       <c r="G35" t="n">
-        <v>1.288484533097295</v>
+        <v>1.290273430442197</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.526317794569048</v>
       </c>
       <c r="E36" t="n">
-        <v>4.602118308357082</v>
+        <v>4.573277599236373</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.070710946603602</v>
+        <v>-3.031164604804273</v>
       </c>
       <c r="G36" t="n">
-        <v>1.251980170673247</v>
+        <v>1.252066779409346</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.389471644575363</v>
       </c>
       <c r="E37" t="n">
-        <v>4.252727688364664</v>
+        <v>4.222529295817514</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.090239081871383</v>
+        <v>-3.055097587199529</v>
       </c>
       <c r="G37" t="n">
-        <v>1.192389090792932</v>
+        <v>1.194016969079172</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.258413052069986</v>
       </c>
       <c r="E38" t="n">
-        <v>3.974997868524729</v>
+        <v>3.95092673909619</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.045232120253129</v>
+        <v>-3.009120851705245</v>
       </c>
       <c r="G38" t="n">
-        <v>1.14976356445704</v>
+        <v>1.149097531078032</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.133344588614476</v>
       </c>
       <c r="E39" t="n">
-        <v>3.68085386343215</v>
+        <v>3.662797771717701</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.068143790475169</v>
+        <v>-3.035609706696413</v>
       </c>
       <c r="G39" t="n">
-        <v>1.047162708214482</v>
+        <v>1.042017417385436</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.017464819839011</v>
       </c>
       <c r="E40" t="n">
-        <v>3.427872184971944</v>
+        <v>3.411326256853123</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.094144403964601</v>
+        <v>-3.064902367038592</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9356448116778672</v>
+        <v>0.9275316468357645</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9107279618522486</v>
       </c>
       <c r="E41" t="n">
-        <v>3.112806680825553</v>
+        <v>3.097084145620342</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.979516521897247</v>
+        <v>-2.947875666949589</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9131606958502267</v>
+        <v>0.9086771689554518</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8113294288742977</v>
       </c>
       <c r="E42" t="n">
-        <v>2.766964579330455</v>
+        <v>2.746544435072931</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.01896832599168</v>
+        <v>-2.994552591380779</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8826366056616934</v>
+        <v>0.8801889939859034</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7202945696047161</v>
       </c>
       <c r="E43" t="n">
-        <v>2.541267092423897</v>
+        <v>2.530184833727385</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.886133396842383</v>
+        <v>-2.853215367997613</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8081116180112017</v>
+        <v>0.8014659223173549</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6369648910123243</v>
       </c>
       <c r="E44" t="n">
-        <v>2.193946543208362</v>
+        <v>2.172833529062051</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.807209661271184</v>
+        <v>-2.773022387498102</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8103195308610297</v>
+        <v>0.8157685621870968</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5599044612410374</v>
       </c>
       <c r="E45" t="n">
-        <v>2.003410373395652</v>
+        <v>1.990909439205024</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.811082047647858</v>
+        <v>-2.786129582841418</v>
       </c>
       <c r="G45" t="n">
-        <v>0.730393695617934</v>
+        <v>0.7329742700012549</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.488620263853394</v>
       </c>
       <c r="E46" t="n">
-        <v>1.732688542131553</v>
+        <v>1.719446554318675</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.778022517206082</v>
+        <v>-2.749291593807188</v>
       </c>
       <c r="G46" t="n">
-        <v>0.65437806183347</v>
+        <v>0.6576313787232442</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4228938066879441</v>
       </c>
       <c r="E47" t="n">
-        <v>1.531171970375348</v>
+        <v>1.518357536956871</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.703711611713129</v>
+        <v>-2.675156345469138</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5470265334397211</v>
+        <v>0.5483598200390923</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3616462017972174</v>
       </c>
       <c r="E48" t="n">
-        <v>1.356970086206628</v>
+        <v>1.349709590470619</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.695545383772149</v>
+        <v>-2.668438069214759</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4950631215428168</v>
+        <v>0.4960469235944114</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3038936700313479</v>
       </c>
       <c r="E49" t="n">
-        <v>1.178361525148403</v>
+        <v>1.177365524683274</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.657442419254345</v>
+        <v>-2.632075208387716</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4157526962625598</v>
+        <v>0.4185747992338731</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2494985175139031</v>
       </c>
       <c r="E50" t="n">
-        <v>1.037069130934978</v>
+        <v>1.040743903012386</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.633872034701416</v>
+        <v>-2.610951215669224</v>
       </c>
       <c r="G50" t="n">
-        <v>0.348558345225903</v>
+        <v>0.3502551445486161</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1969699775064201</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7869321225111254</v>
+        <v>0.7839929147698765</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.543613533273532</v>
+        <v>-2.517805959678291</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2624143686833608</v>
+        <v>0.2627059107668464</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1447404230870564</v>
       </c>
       <c r="E52" t="n">
-        <v>0.632498377396487</v>
+        <v>0.6338292243131511</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.509740368648975</v>
+        <v>-2.487475824264963</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2117366695730414</v>
+        <v>0.2096922154645819</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09229098979576526</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4380087017570964</v>
+        <v>0.4374957584679513</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.493892189784353</v>
+        <v>-2.472495562523354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1980000360913216</v>
+        <v>0.1971613951607931</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0387978646885565</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2760265783470239</v>
+        <v>0.2720675832342523</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.438339394704786</v>
+        <v>-2.422200893598033</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1187554822441535</v>
+        <v>0.1165274420119928</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.01552688546699821</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2155938079327961</v>
+        <v>0.2170362703333053</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.391937239538471</v>
+        <v>-2.377630330223992</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07861294298330329</v>
+        <v>0.0740989200546909</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.07005201446085868</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1209085022330741</v>
+        <v>0.1220765003290466</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.418241288564584</v>
+        <v>-2.401114106040822</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0173988641821612</v>
+        <v>0.01334411152314011</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1240299230782777</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.05934989425575393</v>
+        <v>-0.05648875636112879</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.404824253517481</v>
+        <v>-2.391266326794048</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02910812133437041</v>
+        <v>0.02852625700875277</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1764228205192145</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2116751435908744</v>
+        <v>-0.2084096282875653</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.339470033162573</v>
+        <v>-2.324306795217939</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03443890405533299</v>
+        <v>-0.0369505574021815</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2270925173353453</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.303173003833911</v>
+        <v>-0.299650711925691</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.391023578364702</v>
+        <v>-2.38868514249005</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.07163247684410631</v>
+        <v>-0.0711195335549612</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2755365812902688</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4766496923179774</v>
+        <v>-0.4827263320204184</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.451220919397705</v>
+        <v>-2.447868795358298</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08413158127270427</v>
+        <v>-0.08218044502778724</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3209650169797609</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5854119672370446</v>
+        <v>-0.591342225977066</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.427235178863911</v>
+        <v>-2.423563456389888</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1218173600476133</v>
+        <v>-0.1182968979014235</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3633594264376625</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6100704502772919</v>
+        <v>-0.6107230654014123</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.405843430968327</v>
+        <v>-2.401440413602883</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1645593812327637</v>
+        <v>-0.1636115645010972</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4027114004379241</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.804190513986573</v>
+        <v>-0.8065137018443064</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.491757467415735</v>
+        <v>-2.489132368823011</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1914135787093039</v>
+        <v>-0.1856461687899743</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4393493700459987</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9165342431195048</v>
+        <v>-0.9168062677413344</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.460818631167013</v>
+        <v>-2.461582861774978</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2045939645338294</v>
+        <v>-0.2007959884797193</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4732155655647492</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.073499159042648</v>
+        <v>-1.075055676609709</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.454596220422829</v>
+        <v>-2.456169815768839</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2149046735742554</v>
+        <v>-0.2100984986414807</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5046265228242426</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.232181001670837</v>
+        <v>-1.23138322542565</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.476287439370697</v>
+        <v>-2.482689776714521</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2795989597569219</v>
+        <v>-0.2771336603815062</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5335909497090529</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.374750569781372</v>
+        <v>-1.376937135407514</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.383079971470736</v>
+        <v>-2.383745394929068</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2819294666627762</v>
+        <v>-0.2755710436076777</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5591839190349616</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.497290952788178</v>
+        <v>-1.49613149358168</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.432335945483555</v>
+        <v>-2.432131622056845</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3275606820936822</v>
+        <v>-0.3214157312754455</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5807392938695518</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.631391162381389</v>
+        <v>-1.628077463344617</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.460128810881611</v>
+        <v>-2.459333474319132</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3123346223193437</v>
+        <v>-0.3092600121878567</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5977232784167815</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.778036220453955</v>
+        <v>-1.77272747088354</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.410037245541646</v>
+        <v>-2.402112546188659</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.331364147433883</v>
+        <v>-0.3218127896360085</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6089063389256064</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.856459821070221</v>
+        <v>-1.848252118523222</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.410203753886399</v>
+        <v>-2.404737644781382</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3783518264498767</v>
+        <v>-0.3732254431618093</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6140796798490795</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.912531048725023</v>
+        <v>-1.904245886252077</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.434431023008185</v>
+        <v>-2.430506183453311</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4382570154787174</v>
+        <v>-0.4355349394983908</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6127643029872465</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.942893509934218</v>
+        <v>-1.932432150486635</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.376251909494541</v>
+        <v>-2.367744125974582</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.473658641319205</v>
+        <v>-0.4719923380303293</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6044291769065783</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.966731039743562</v>
+        <v>-1.948601757547903</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.440937046867056</v>
+        <v>-2.431378370021061</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4512166100182602</v>
+        <v>-0.4510702290558407</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5882701351080541</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.941877382086756</v>
+        <v>-1.915859385858037</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.349824656491724</v>
+        <v>-2.339781092707714</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4891365983330404</v>
+        <v>-0.4899673102947713</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5642521825132752</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.839704690159275</v>
+        <v>-1.810070474238117</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.284930926247761</v>
+        <v>-2.282508321319718</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4506536532336217</v>
+        <v>-0.4478047137525316</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5323361984315224</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.692729055079911</v>
+        <v>-1.661380962057091</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.176412009678717</v>
+        <v>-2.171122167649281</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4723698789292363</v>
+        <v>-0.4705590244399713</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4920962914129208</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.584888980224087</v>
+        <v>-1.557465116835464</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.136262151369746</v>
+        <v>-2.133440658319109</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4397531508987804</v>
+        <v>-0.4382753130990199</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4444693556060755</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.415657339650187</v>
+        <v>-1.382927166373856</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.077037023895479</v>
+        <v>-2.069490475362075</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.420026486450718</v>
+        <v>-0.4192207812367338</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3904500205461161</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.257659218100633</v>
+        <v>-1.230621434500392</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.022308231650199</v>
+        <v>-2.020765742258703</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3891321744113986</v>
+        <v>-0.3876366489120124</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3311153737456509</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.9470888293418755</v>
+        <v>-0.91929596394382</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923712114571168</v>
+        <v>-1.920254474254684</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3503881832623317</v>
+        <v>-0.3464072310051972</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.268551718713773</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.7150823229550353</v>
+        <v>-0.691295416561861</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.95876791538794</v>
+        <v>-1.96027015001477</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3032230173294044</v>
+        <v>-0.3019190069225171</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2047057637615663</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4343230271136925</v>
+        <v>-0.4139083721422582</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.903184014353859</v>
+        <v>-1.9005204907585</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2902018208015101</v>
+        <v>-0.2871400190042349</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1416710353515828</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1810918910966965</v>
+        <v>-0.1644703328139585</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.753892510464883</v>
+        <v>-1.748541676367773</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2871198916219022</v>
+        <v>-0.2819983876992487</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0816974133058169</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1192537874370566</v>
+        <v>0.1323347561912722</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.63716772111087</v>
+        <v>-1.629784021398158</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2327338747969546</v>
+        <v>-0.2312670155693755</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.02794803825176572</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3312109813378347</v>
+        <v>0.3453587013556827</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.494349915284898</v>
+        <v>-1.482102098175121</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2403365360326191</v>
+        <v>-0.2379432072970598</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01663543529997731</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5754421278487363</v>
+        <v>0.589362957374834</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.412819378741279</v>
+        <v>-1.403297297135888</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1576239732174615</v>
+        <v>-0.1555557322026088</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.04932460462372273</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7796844351093283</v>
+        <v>0.7864551645419084</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.293119396326089</v>
+        <v>-1.281617512203974</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.08962696657020428</v>
+        <v>-0.0825811629124107</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.06789432677099373</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8925276892765167</v>
+        <v>0.886624876966949</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.076169391765451</v>
+        <v>-1.057690015101338</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07628007240092652</v>
+        <v>-0.07492238897448535</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07015818428969665</v>
       </c>
       <c r="E90" t="n">
-        <v>1.028113665638287</v>
+        <v>1.014182467460684</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.007069648534633</v>
+        <v>-0.9954116247192707</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0476418569448982</v>
+        <v>-0.04330593085389626</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0560618933321593</v>
       </c>
       <c r="E91" t="n">
-        <v>1.064364910981484</v>
+        <v>1.051254056114108</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7227496357824351</v>
+        <v>-0.7093368701800685</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.05460959075606802</v>
+        <v>-0.0527298152303305</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.02594072672981717</v>
       </c>
       <c r="E92" t="n">
-        <v>1.088835538453293</v>
+        <v>1.06557926304889</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4668135015640615</v>
+        <v>-0.4522101708006828</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08499888847504</v>
+        <v>-0.08614370958529612</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01639725006525537</v>
       </c>
       <c r="E93" t="n">
-        <v>1.205708538531756</v>
+        <v>1.179899745095162</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2720518013028414</v>
+        <v>-0.2584652083076017</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06970939695031969</v>
+        <v>-0.06809676668099782</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06469988388095602</v>
       </c>
       <c r="E94" t="n">
-        <v>1.250655422963351</v>
+        <v>1.228953835363978</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0448014563532825</v>
+        <v>-0.03359416391803693</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1027164742138943</v>
+        <v>-0.1085345075493941</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1116797486814644</v>
       </c>
       <c r="E95" t="n">
-        <v>1.253991079144486</v>
+        <v>1.229200853238061</v>
       </c>
       <c r="F95" t="n">
-        <v>0.10988662568356</v>
+        <v>0.1169915916469981</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07632764621371287</v>
+        <v>-0.07999997860841292</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.150441352631432</v>
       </c>
       <c r="E96" t="n">
-        <v>1.199104927364605</v>
+        <v>1.18313171476125</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1971583455574093</v>
+        <v>0.2027866935624404</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1451785418084174</v>
+        <v>-0.1499279941182545</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1754936958639844</v>
       </c>
       <c r="E97" t="n">
-        <v>1.146364476525523</v>
+        <v>1.13550178927264</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2906902912574008</v>
+        <v>0.2929183314895614</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1605491527831452</v>
+        <v>-0.1653736253362223</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1852083208496535</v>
       </c>
       <c r="E98" t="n">
-        <v>1.064568014566841</v>
+        <v>1.061716635403044</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3050386751778988</v>
+        <v>0.3051643188373089</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1890428170387842</v>
+        <v>-0.1930420669162212</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.181499370368988</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9945320430972154</v>
+        <v>0.9864512040509804</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3430123365122329</v>
+        <v>0.3390759084645009</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1984258367298763</v>
+        <v>-0.1994590423562876</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1709054893698693</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8940890862089917</v>
+        <v>0.8867590595158336</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3667620377441255</v>
+        <v>0.364889581266509</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1713648761439185</v>
+        <v>-0.1704432860013522</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1604824213191247</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9339498421171843</v>
+        <v>0.9299097275544052</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3696323244489019</v>
+        <v>0.3676909469348128</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2359682841457496</v>
+        <v>-0.2358792357269443</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1614861261154074</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9265771209766538</v>
+        <v>0.9269790587026308</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3350016383438239</v>
+        <v>0.3352712232829466</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2177316559109826</v>
+        <v>-0.2140343167685359</v>
       </c>
     </row>
   </sheetData>
